--- a/build2.7_260206/results/東北・北陸の冬季作付けなし/2.7b_data2022_import4_wval100_unlim_fbal_cfim-10_results.xlsx
+++ b/build2.7_260206/results/東北・北陸の冬季作付けなし/2.7b_data2022_import4_wval100_unlim_fbal_cfim-10_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikiyo\OneDrive\MAFF_2025\workspace simul\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8E31BA-04EF-4A1B-AD3B-4F3FF655E8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5318DB1B-412B-4C5A-9CAA-D3015B082312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2880" windowWidth="19200" windowHeight="11170" firstSheet="2" activeTab="7" xr2:uid="{6F92BA5B-357D-430E-B484-0655F01814FF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="7" xr2:uid="{4779E27C-E148-4BB3-886B-660B140F26CA}"/>
   </bookViews>
   <sheets>
     <sheet name="pcroprep" sheetId="1" r:id="rId1"/>
@@ -701,7 +701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75586A5B-2D99-43C7-90A3-292642531231}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15049DA4-1FF4-46DA-B76C-439ECFC2E2E2}">
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1357,16 +1357,16 @@
         <v>66.400000000000006</v>
       </c>
       <c r="D35">
-        <v>10.791310868715268</v>
+        <v>4.4408920985006262E-16</v>
       </c>
       <c r="E35">
         <v>241.4</v>
       </c>
       <c r="F35">
-        <v>39.241130431691879</v>
+        <v>1.7763568394002505E-15</v>
       </c>
       <c r="G35">
-        <v>-202.15886956830812</v>
+        <v>-241.4</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1443,16 +1443,16 @@
         <v>1471.1000000000006</v>
       </c>
       <c r="D39">
-        <v>950.85374774111142</v>
+        <v>940.06243687239612</v>
       </c>
       <c r="E39">
         <v>806.59999999999991</v>
       </c>
       <c r="F39">
-        <v>324.01905593495854</v>
+        <v>284.77792550326666</v>
       </c>
       <c r="G39">
-        <v>-482.58094406504148</v>
+        <v>-521.82207449673342</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1821,7 +1821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6736F562-466F-4436-B7D5-ECA0F22EC993}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8EC57B1-91CF-40BD-99D6-0E235D2B52DD}">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2275,7 +2275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A0C46AE-5FE7-4F5D-A7B4-8F323E1409DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00E2469-DC3B-4D79-900D-B0F305D3A9AD}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2702,7 +2702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477618FE-8403-4BAA-82C8-CA45EEAA3E57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4DB092-7EC6-42BE-95E8-96AFE9998AD6}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2832,13 +2832,13 @@
         <v>2461.5000000000014</v>
       </c>
       <c r="E6">
-        <v>1225.6856748937787</v>
+        <v>1214.8943640250634</v>
       </c>
       <c r="F6">
-        <v>-932.09983931190413</v>
+        <v>-942.89115018061943</v>
       </c>
       <c r="G6">
-        <v>56.802942962798326</v>
+        <v>56.302832511705247</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2855,13 +2855,13 @@
         <v>92.90000000000002</v>
       </c>
       <c r="E7">
-        <v>41.698686055940364</v>
+        <v>41.227792490760066</v>
       </c>
       <c r="F7">
-        <v>-28.429504820410195</v>
+        <v>-28.900398385590492</v>
       </c>
       <c r="G7">
-        <v>59.460661304471891</v>
+        <v>58.789185883110214</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2878,13 +2878,13 @@
         <v>60.9</v>
       </c>
       <c r="E8">
-        <v>14.863948025507103</v>
+        <v>14.785465764643718</v>
       </c>
       <c r="F8">
-        <v>-49.869617400663373</v>
+        <v>-49.948099661526754</v>
       </c>
       <c r="G8">
-        <v>22.961732337236455</v>
+        <v>22.840493440001765</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2901,13 +2901,13 @@
         <v>299.09999999999997</v>
       </c>
       <c r="E9">
-        <v>217.18439830446917</v>
+        <v>215.13404923941326</v>
       </c>
       <c r="F9">
-        <v>-106.48342882638318</v>
+        <v>-108.53377789143909</v>
       </c>
       <c r="G9">
-        <v>67.101015330963349</v>
+        <v>66.467542092912097</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3009,7 +3009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1861E254-A3D7-4E42-B275-53D0092F3A9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A27A81BC-241A-4472-B619-6B3159E46992}">
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3265,13 +3265,13 @@
         <v>241.4</v>
       </c>
       <c r="D15">
-        <v>39.241130431691879</v>
+        <v>1.7763568394002505E-15</v>
       </c>
       <c r="E15">
-        <v>16.255646409151563</v>
+        <v>7.358561886496481E-16</v>
       </c>
       <c r="F15">
-        <v>-202.15886956830812</v>
+        <v>-241.4</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3597,7 +3597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91980648-CDBD-40B4-A7AB-0BD0721F4370}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6719E857-C7A6-4058-82DD-7DCDB26E9C2A}">
   <dimension ref="A1:Z56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3901,9 +3901,6 @@
       <c r="E11">
         <v>539.91268800000023</v>
       </c>
-      <c r="S11">
-        <v>79.824242424242073</v>
-      </c>
       <c r="U11">
         <v>35.099999999999994</v>
       </c>
@@ -5566,7 +5563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615EA0B2-A85E-45C9-88F5-EE78C7C63B00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C27A9C-B052-4B93-9571-B9518CCFDC21}">
   <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5719,9 +5716,6 @@
       <c r="D3">
         <v>1.7817118703999969E-2</v>
       </c>
-      <c r="R3">
-        <v>6.5056757575757157E-2</v>
-      </c>
       <c r="T3">
         <v>9.3716999999999787E-2</v>
       </c>
@@ -5738,7 +5732,7 @@
         <v>6.8766859694790686E-3</v>
       </c>
       <c r="AF3">
-        <v>0.97726737784001183</v>
+        <v>0.91221062026425459</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -5884,7 +5878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1821EC-DC08-4BCB-BFCE-261022EC192A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8EF6990-B456-460C-9030-B93EC12C719D}">
   <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -6086,9 +6080,6 @@
       <c r="E5">
         <v>55611.00686400001</v>
       </c>
-      <c r="S5">
-        <v>21951.66666666657</v>
-      </c>
       <c r="U5">
         <v>5019.2999999999993</v>
       </c>
@@ -6099,7 +6090,7 @@
         <v>8864</v>
       </c>
       <c r="Z5">
-        <v>313537.95948739827</v>
+        <v>291586.2928207317</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.55000000000000004">
@@ -6118,9 +6109,6 @@
       <c r="E6">
         <v>66409.260624000017</v>
       </c>
-      <c r="S6">
-        <v>13170.999999999942</v>
-      </c>
       <c r="U6">
         <v>1719.8999999999996</v>
       </c>
@@ -6131,7 +6119,7 @@
         <v>13850</v>
       </c>
       <c r="Z6">
-        <v>354586.28265000001</v>
+        <v>341415.28265000007</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
@@ -6150,9 +6138,6 @@
       <c r="E7">
         <v>50751.79267200001</v>
       </c>
-      <c r="S7">
-        <v>20993.775757575666</v>
-      </c>
       <c r="U7">
         <v>2492.0999999999995</v>
       </c>
@@ -6163,7 +6148,7 @@
         <v>8864</v>
       </c>
       <c r="Z7">
-        <v>344910.72155513661</v>
+        <v>323916.94579756097</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
